--- a/spring7/게시판주요기능정리_v01_전하늘.xlsx
+++ b/spring7/게시판주요기능정리_v01_전하늘.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjsck\Desktop\DIMA3\DIMA_webcomponent\Test_SpringBoot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjsck\Desktop\DIMA3\DIMA_webcomponent\Test_SpringBoot\spring7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D60879-D46D-4A2E-8453-D584F7C1E334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAC2B4F-45EF-495F-A197-D36E2793AAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
   <si>
     <t>게시판 관련 주요 기능 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +417,46 @@
   </si>
   <si>
     <t>4) 댓글 - JQUERY,AJAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[페이징 처리]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 페이지수는 16개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalElements -&gt; 총 데이터 개수가 156개라면,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageLimit -&gt; 한 페이지당 10개씩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1페이지: 1~10번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2페이지: 11~20번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 그룹: 10(반환값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0그룹: 1~10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1그룹: 11~20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,6 +652,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -626,12 +672,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H51"/>
+  <dimension ref="A2:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -965,22 +1005,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="19.149999999999999" x14ac:dyDescent="0.6">
       <c r="A3" s="6"/>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1032,7 +1072,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1053,7 +1093,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="B7" s="14"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1066,7 +1106,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="B8" s="14"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1077,7 +1117,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="B9" s="15"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1088,7 +1128,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1111,7 +1151,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="B11" s="14"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="8" t="s">
         <v>27</v>
       </c>
@@ -1132,7 +1172,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="B12" s="14"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="8" t="s">
         <v>30</v>
       </c>
@@ -1151,7 +1191,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="B13" s="14"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="9" t="s">
         <v>32</v>
       </c>
@@ -1172,7 +1212,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="B14" s="14"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="9" t="s">
         <v>35</v>
       </c>
@@ -1191,7 +1231,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="B15" s="14"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="9" t="s">
         <v>36</v>
       </c>
@@ -1212,7 +1252,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.6">
-      <c r="B16" s="14"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="9" t="s">
         <v>37</v>
       </c>
@@ -1231,8 +1271,8 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B17" s="14"/>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="13" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1244,8 +1284,8 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B18" s="14"/>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1263,8 +1303,8 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B19" s="14"/>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="13" t="s">
         <v>79</v>
       </c>
       <c r="D19" s="1"/>
@@ -1274,8 +1314,8 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B20" s="15"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1293,10 +1333,10 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1316,8 +1356,8 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B22" s="14"/>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="1"/>
@@ -1335,8 +1375,8 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B23" s="14"/>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="8" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="1"/>
@@ -1354,7 +1394,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B24" s="14"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="1" t="s">
         <v>54</v>
       </c>
@@ -1375,7 +1415,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.6">
-      <c r="B25" s="15"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="5" t="s">
         <v>56</v>
       </c>
@@ -1459,7 +1499,7 @@
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="12" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1516,6 +1556,56 @@
     <row r="51" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B51" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B53" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B63" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
